--- a/biology/Botanique/Pleosporomycetidae/Pleosporomycetidae.xlsx
+++ b/biology/Botanique/Pleosporomycetidae/Pleosporomycetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pleosporomycetidae sont une sous-classe de champignons (Fungi) de la classe des Dothideomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteurs) de ce taxon est Pleosporomycetidae C.L. Schoch, Spatafora, Crous &amp; Shoemaker, 2007[1], construit à partir du genre type Pleospora. Il est choisi dans une étude phylogénétique de 2007[2] pour désigner l'une des deux lignées principales de la classe des Dothideomycetes, l'autre étant la sous-classe des Dothideomycetidae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteurs) de ce taxon est Pleosporomycetidae C.L. Schoch, Spatafora, Crous &amp; Shoemaker, 2007, construit à partir du genre type Pleospora. Il est choisi dans une étude phylogénétique de 2007 pour désigner l'une des deux lignées principales de la classe des Dothideomycetes, l'autre étant la sous-classe des Dothideomycetidae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (17 avril 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (17 avril 2022) :
 Gloniales Jayasiri &amp; K.D. Hyde, 2018
 Hysteriales Lindau, 1897
 Jahnulales K.L. Pang, Abdel-Wahab, El-Shar., E.B.G.Jones &amp; Sivichai (2002)
